--- a/data/03030.xlsx
+++ b/data/03030.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -705,6 +705,43 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>03030</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>IDBTECH</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
